--- a/biology/Zoologie/Astrophiura/Astrophiura.xlsx
+++ b/biology/Zoologie/Astrophiura/Astrophiura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astrophiura est un genre d'ophiures de la famille des Astrophiuridae.
 Longtemps considéré comme un chaînon manquant entre ophiures et étoiles de mer du fait de sa forme étalée, il s'agit en fait d'un taxon aberrant.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (24 août 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (24 août 2017) :
 Astrophiura caroleae Pawson, 2018
 Astrophiura chariplax Baranova, 1955
 Astrophiura kawamurai Matsumoto, 1913
